--- a/Assign3_Tasks&Responsibilities.xlsx
+++ b/Assign3_Tasks&Responsibilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Team Profile</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Scope&amp;Limits</t>
   </si>
   <si>
-    <t>General overview with specific aims for the project, as well as some smaller goals which will be helpful for achieving the aim. What are most important parts of project? Objectives! Priority/Weight map?  (1 Para for aim, 1 Para per goal - each para include desc of aim/goal and justification for it)</t>
-  </si>
-  <si>
     <t>Scope and Limits of the project - Phase Plan PPT.  Set priorities and product roadmap. Deliverables.  Also state what will be excluded from the project. (1 Para)</t>
   </si>
   <si>
@@ -162,6 +159,88 @@
   </si>
   <si>
     <t>Group Processes &amp; Comms</t>
+  </si>
+  <si>
+    <t>Define roles for the project and justification. In addition to those defined in Assign 2, consider adding Educational Psychologist.</t>
+  </si>
+  <si>
+    <t>Skills and Jobs</t>
+  </si>
+  <si>
+    <t>Job Descriptions</t>
+  </si>
+  <si>
+    <t>Group Reflection</t>
+  </si>
+  <si>
+    <t>Rubric</t>
+  </si>
+  <si>
+    <t>How did group perform in this assignment. Include evidence about group processes, such as commit trails from GitHub, project meeting minutes.</t>
+  </si>
+  <si>
+    <t>Each group member to write 200 wordsabout their perception of the group,</t>
+  </si>
+  <si>
+    <t>What went well, What could be improved, At least one thing that was surprising, At least one thing you have learned about groups</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember to include in your section on Tools how well you think your GitHub log of activity reflects your group’s work on this assignment. </t>
+  </si>
+  <si>
+    <t>Group as a whole contribute 400 words</t>
+  </si>
+  <si>
+    <t>All/PM</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Feedback via SparkPLUS</t>
+  </si>
+  <si>
+    <t>Document preparation and formatting.  Visual and graphical elements are the key.</t>
+  </si>
+  <si>
+    <t>Include this document in the project!</t>
+  </si>
+  <si>
+    <t>Risks identified for the project, DO NOT include generic risks such as tech breaks down, health issues, institutional/market changes. E.g. You may find limitations with the tools used for development (can be software or hardware), that creates a dead-end during development.
+- RISK ANALYSIS, PESTLE ANALYIS, SWOT ANALYSIS</t>
+  </si>
+  <si>
+    <t>Similar systems/products in the market?  Competitors? Points of difference?  (1 Para)
+- Completing product market share, pricing, functionality, shortcomings, differentiating factors, what can we learn/build on</t>
+  </si>
+  <si>
+    <t>Why important or interesting? How fit with current IT trends? Value for future employer?  (1 Para)
+- BUSINESS CASE, STRATEGIC ANALYSIS, FEASIBILITY STUDY</t>
+  </si>
+  <si>
+    <t>Overview of project. Big picture and outcomes.  (2 Para)
+- VISION AND ROADMAP</t>
+  </si>
+  <si>
+    <t>TBA???</t>
+  </si>
+  <si>
+    <t>AW/JH</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>JH/JK</t>
+  </si>
+  <si>
+    <t>New for this assignment. -  Suggest we follow Agile, Scrum/Sprint method, Peer Review, mention tools - refer feedback Assign2.</t>
   </si>
   <si>
     <r>
@@ -176,99 +255,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Include here Agile Methodology, Scrum/Sprint</t>
+      <t>Include here Agile Methodology, Scrum/Sprint, use of Teams and O365</t>
     </r>
   </si>
   <si>
-    <t>Define roles for the project and justification. In addition to those defined in Assign 2, consider adding Educational Psychologist.</t>
-  </si>
-  <si>
-    <t>Skills and Jobs</t>
-  </si>
-  <si>
-    <t>Job Descriptions</t>
-  </si>
-  <si>
-    <t>Take 4 roles from the project Assign2 and create job ads.  Assignment mentions these roles are for the 'next phase' of the project and would be funded for 6 months.  (no set length)</t>
-  </si>
-  <si>
-    <t>Group Reflection</t>
-  </si>
-  <si>
-    <t>Rubric</t>
-  </si>
-  <si>
-    <t>How did group perform in this assignment. Include evidence about group processes, such as commit trails from GitHub, project meeting minutes.</t>
-  </si>
-  <si>
-    <t>Each group member to write 200 wordsabout their perception of the group,</t>
-  </si>
-  <si>
-    <t>What went well, What could be improved, At least one thing that was surprising, At least one thing you have learned about groups</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remember to include in your section on Tools how well you think your GitHub log of activity reflects your group’s work on this assignment. </t>
-  </si>
-  <si>
-    <t>Group as a whole contribute 400 words</t>
-  </si>
-  <si>
-    <t>All/PM</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Feedback via SparkPLUS</t>
-  </si>
-  <si>
-    <t>Document preparation and formatting.  Visual and graphical elements are the key.</t>
-  </si>
-  <si>
-    <t>Include this document in the project!</t>
-  </si>
-  <si>
-    <t>Risks identified for the project, DO NOT include generic risks such as tech breaks down, health issues, institutional/market changes. E.g. You may find limitations with the tools used for development (can be software or hardware), that creates a dead-end during development.
-- RISK ANALYSIS, PESTLE ANALYIS, SWOT ANALYSIS</t>
+    <t>PatM to contribute images - in Sharepoint</t>
+  </si>
+  <si>
+    <t>General overview with specific aims for the project, as well as some smaller goals which will be helpful for achieving the aim. What are most important parts of project? Objectives! Priority/Weight map?  (1 Para for aim, 1 Para per goal - each para include desc of aim/goal and justification)</t>
   </si>
   <si>
     <t>Details of what project will do, how it will do it.  How far have you got with developing features/outcomes. Talk about 'story' of the project - how it began, how it has progressed, what stage of the plan up to. Include dead ends you have followed, decisions made, changes that have been made to the project plan.  Significant detail!  If handing over project what does new team need to know? (no set length - 2-4 pages easy!)
-- FUNCTIONALITY SPEC, FLOWCHART, PROCESS MAP, MOCK UP SCREEN SHOTS/APP</t>
-  </si>
-  <si>
-    <t>Similar systems/products in the market?  Competitors? Points of difference?  (1 Para)
-- Completing product market share, pricing, functionality, shortcomings, differentiating factors, what can we learn/build on</t>
-  </si>
-  <si>
-    <t>Why important or interesting? How fit with current IT trends? Value for future employer?  (1 Para)
-- BUSINESS CASE, STRATEGIC ANALYSIS, FEASIBILITY STUDY</t>
-  </si>
-  <si>
-    <t>Avg. 36hrs per person for this assign during the course. Plan to develop product beyond the end of this course, allocate 10hours per week per person for 10 weeks to develop the project.  Therefore 6 weeks of the semester (Week 7 - 12) to work on assignment + 10 weeks after that = total project plan 15 weeks. The extra 10 weeks is hypothetical for next stages, if the project were to proceed.  Present in a table - one row per week, specify the work for each person in each week (note: the first 6 rows are project so far actual, then 10 rows best guess). SEt Milestones for each week - this can include creating final report, documentation, etc.
-- hello hi gi</t>
-  </si>
-  <si>
-    <t>Overview of project. Big picture and outcomes.  (2 Para)
-- VISION AND ROADMAP</t>
-  </si>
-  <si>
-    <t>New for this assignment. -  Suggest we follow Agile, Scrum/Sprint method, mention tools - refer feedback Assign2.</t>
-  </si>
-  <si>
-    <t>TBA???</t>
+- FUNCTIONALITY SPEC, FLOWCHART, PROCESS MAP, MOCK UP SCREEN SHOTS/APP (USER GUIDE/MANUAL FOR THE APP - APPENDIX)</t>
+  </si>
+  <si>
+    <t>Avg. 36hrs per person for this assign during the course. Plan to develop product beyond the end of this course, allocate 10hours per week per person for 10 weeks to develop the project.  Therefore 6 weeks of the semester (Week 7 - 12) to work on assignment + 10 weeks after that = total project plan 15 weeks. The extra 10 weeks is hypothetical for next stages, if the project were to proceed.  Present in a table - one row per week, specify the work for each person in each week (note: the first 6 rows are project so far actual, then 10 rows best guess). Set Milestones for each week - this can include creating final report, documentation, etc.  CRITICAL PATH?</t>
+  </si>
+  <si>
+    <r>
+      <t>Take 4 roles from the project Assign2 and create job ads.  Assignment mentions these roles are for the 'next phase' of the project and would be funded for 6 months.  (no set length) - 2 x App Developer (Android/Apple), Sys Admin, DBA, Analyst. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note at this stage we're developing the 'Platform' for surveying via this app and database - The next phase we need App Developers (AT LEAST 2), Database Experts, etc - no sales/psychologists/etc req'd.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +312,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -418,6 +450,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -740,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -789,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -826,7 +861,9 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -860,7 +897,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3">
@@ -878,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -893,7 +930,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -905,14 +942,14 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -930,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -945,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -960,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -975,7 +1012,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="9"/>
     </row>
@@ -984,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -999,28 +1036,28 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="99.95" customHeight="1">
+    <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E24" s="9"/>
     </row>
@@ -1029,13 +1066,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="9"/>
     </row>
@@ -1044,19 +1081,19 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1065,22 +1102,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="54.95" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1093,10 +1130,10 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E32" s="12"/>
     </row>
@@ -1107,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" s="12"/>
     </row>
@@ -1115,10 +1152,10 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -1129,34 +1166,34 @@
         <v>20</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" s="16">
         <v>10</v>
@@ -1171,14 +1208,14 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" s="17">
         <v>10</v>
@@ -1186,7 +1223,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
